--- a/backend/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>cc55a41a-29b1-43f1-9ada-c6855cb8368b</t>
+    <t>75977d3d-b9d0-4e43-904a-760e39070100</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>

--- a/backend/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>75977d3d-b9d0-4e43-904a-760e39070100</t>
+    <t>0c8e95d7-ed09-4a7d-9aa8-bfc8e925fc3f</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>

--- a/backend/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>0c8e95d7-ed09-4a7d-9aa8-bfc8e925fc3f</t>
+    <t>fdd53ead-7f90-4f23-876e-3d09ac4594e8</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>

--- a/backend/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>fdd53ead-7f90-4f23-876e-3d09ac4594e8</t>
+    <t>1f55bc26-2bbc-4005-9c41-3fac29826504</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>

--- a/backend/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>1f55bc26-2bbc-4005-9c41-3fac29826504</t>
+    <t>ea29632d-9e6c-46c6-8902-aea1c4711d3d</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>

--- a/backend/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>ea29632d-9e6c-46c6-8902-aea1c4711d3d</t>
+    <t>e766ade7-346e-4807-9855-08bce792d077</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>
